--- a/phys3310/transmissionLineData11.4/wire coil.xlsx
+++ b/phys3310/transmissionLineData11.4/wire coil.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditi/Desktop/python scripts/phys3310/transmissionLineData11.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aditi/Desktop/python scripts/transmissionLines/phys3310/transmissionLineData11.4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{520B47A7-278A-7A45-B931-106107375BBE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE383EC-A21C-044F-9DB8-DF10AA94A9EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wire coil" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -608,10 +608,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -621,13 +622,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wire</a:t>
+              <a:t>Wire coil</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> coil</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -644,10 +640,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -680,19 +677,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3128,19 +3119,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -5576,22 +5561,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -8020,6 +7998,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
         <c:smooth val="0"/>
         <c:axId val="1109650815"/>
         <c:axId val="1073241983"/>
@@ -8031,38 +8024,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hertz</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8073,8 +8102,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8102,28 +8132,72 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ohms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8142,8 +8216,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8167,7 +8242,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8183,8 +8258,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -8209,14 +8285,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8284,46 +8357,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -8332,14 +8392,38 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8349,18 +8433,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -8368,131 +8457,84 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8508,18 +8550,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8529,22 +8574,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8553,13 +8598,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8571,13 +8617,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8589,35 +8636,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8627,29 +8669,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -8659,13 +8688,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8677,13 +8707,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8695,26 +8726,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8722,8 +8754,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8733,13 +8766,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8751,11 +8785,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8764,15 +8799,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8781,8 +8815,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8796,17 +8831,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8815,8 +8848,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8826,8 +8860,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -9169,11 +9209,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G801"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="188" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
